--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H2">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I2">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J2">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.31488599999999</v>
+        <v>43.73434833333334</v>
       </c>
       <c r="N2">
-        <v>120.944658</v>
+        <v>131.203045</v>
       </c>
       <c r="O2">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="P2">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="Q2">
-        <v>886.0207430223832</v>
+        <v>441.7457391022184</v>
       </c>
       <c r="R2">
-        <v>7974.186687201448</v>
+        <v>3975.711651919965</v>
       </c>
       <c r="S2">
-        <v>0.1065616245300328</v>
+        <v>0.06651943271575143</v>
       </c>
       <c r="T2">
-        <v>0.1065616245300328</v>
+        <v>0.06651943271575141</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H3">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I3">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J3">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>208.959881</v>
       </c>
       <c r="O3">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032023</v>
       </c>
       <c r="P3">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032022</v>
       </c>
       <c r="Q3">
-        <v>1530.805842003281</v>
+        <v>703.5441675538597</v>
       </c>
       <c r="R3">
-        <v>13777.25257802952</v>
+        <v>6331.897507984737</v>
       </c>
       <c r="S3">
-        <v>0.1841098627188837</v>
+        <v>0.1059418456673084</v>
       </c>
       <c r="T3">
-        <v>0.1841098627188837</v>
+        <v>0.1059418456673084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H4">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I4">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J4">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.96691433333334</v>
+        <v>37.39234266666667</v>
       </c>
       <c r="N4">
-        <v>77.90074300000001</v>
+        <v>112.177028</v>
       </c>
       <c r="O4">
-        <v>0.126458972388088</v>
+        <v>0.1708807549004341</v>
       </c>
       <c r="P4">
-        <v>0.126458972388088</v>
+        <v>0.170880754900434</v>
       </c>
       <c r="Q4">
-        <v>570.6880761517862</v>
+        <v>377.6873024871507</v>
       </c>
       <c r="R4">
-        <v>5136.192685366075</v>
+        <v>3399.185722384356</v>
       </c>
       <c r="S4">
-        <v>0.06863659679931118</v>
+        <v>0.0568733162122797</v>
       </c>
       <c r="T4">
-        <v>0.06863659679931118</v>
+        <v>0.05687331621227969</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.97750833333333</v>
+        <v>10.100659</v>
       </c>
       <c r="H5">
-        <v>65.932525</v>
+        <v>30.301977</v>
       </c>
       <c r="I5">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="J5">
-        <v>0.5427578249542736</v>
+        <v>0.3328245842863797</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.40355333333332</v>
+        <v>68.04127866666666</v>
       </c>
       <c r="N5">
-        <v>208.21066</v>
+        <v>204.123836</v>
       </c>
       <c r="O5">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="P5">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="Q5">
-        <v>1525.317171746277</v>
+        <v>687.2617537359746</v>
       </c>
       <c r="R5">
-        <v>13727.8545457165</v>
+        <v>6185.355783623771</v>
       </c>
       <c r="S5">
-        <v>0.1834497409060458</v>
+        <v>0.1034899896910401</v>
       </c>
       <c r="T5">
-        <v>0.1834497409060458</v>
+        <v>0.1034899896910401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>38.065128</v>
       </c>
       <c r="I6">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J6">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.31488599999999</v>
+        <v>43.73434833333334</v>
       </c>
       <c r="N6">
-        <v>120.944658</v>
+        <v>131.203045</v>
       </c>
       <c r="O6">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="P6">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="Q6">
-        <v>511.5304319651359</v>
+        <v>554.9178557683067</v>
       </c>
       <c r="R6">
-        <v>4603.773887686223</v>
+        <v>4994.26070191476</v>
       </c>
       <c r="S6">
-        <v>0.06152171295765845</v>
+        <v>0.08356123829189316</v>
       </c>
       <c r="T6">
-        <v>0.06152171295765844</v>
+        <v>0.08356123829189313</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>38.065128</v>
       </c>
       <c r="I7">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J7">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>208.959881</v>
       </c>
       <c r="O7">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032023</v>
       </c>
       <c r="P7">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032022</v>
       </c>
       <c r="Q7">
         <v>883.7871796810854</v>
@@ -883,10 +883,10 @@
         <v>7954.084617129768</v>
       </c>
       <c r="S7">
-        <v>0.1062929940944434</v>
+        <v>0.133083393069777</v>
       </c>
       <c r="T7">
-        <v>0.1062929940944433</v>
+        <v>0.133083393069777</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>38.065128</v>
       </c>
       <c r="I8">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J8">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.96691433333334</v>
+        <v>37.39234266666667</v>
       </c>
       <c r="N8">
-        <v>77.90074300000001</v>
+        <v>112.177028</v>
       </c>
       <c r="O8">
-        <v>0.126458972388088</v>
+        <v>0.1708807549004341</v>
       </c>
       <c r="P8">
-        <v>0.126458972388088</v>
+        <v>0.170880754900434</v>
       </c>
       <c r="Q8">
-        <v>329.4779726211227</v>
+        <v>474.4481032755094</v>
       </c>
       <c r="R8">
-        <v>2965.301753590104</v>
+        <v>4270.032929479585</v>
       </c>
       <c r="S8">
-        <v>0.0396262822127648</v>
+        <v>0.07144385534332964</v>
       </c>
       <c r="T8">
-        <v>0.0396262822127648</v>
+        <v>0.07144385534332963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>38.065128</v>
       </c>
       <c r="I9">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="J9">
-        <v>0.3133528721960219</v>
+        <v>0.4180918757349671</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>69.40355333333332</v>
+        <v>68.04127866666666</v>
       </c>
       <c r="N9">
-        <v>208.21066</v>
+        <v>204.123836</v>
       </c>
       <c r="O9">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="P9">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="Q9">
-        <v>880.6183804293865</v>
+        <v>863.3333272434452</v>
       </c>
       <c r="R9">
-        <v>7925.565423864479</v>
+        <v>7769.999945191008</v>
       </c>
       <c r="S9">
-        <v>0.1059118829311553</v>
+        <v>0.1300033890299674</v>
       </c>
       <c r="T9">
-        <v>0.1059118829311553</v>
+        <v>0.1300033890299674</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H10">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I10">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J10">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.31488599999999</v>
+        <v>43.73434833333334</v>
       </c>
       <c r="N10">
-        <v>120.944658</v>
+        <v>131.203045</v>
       </c>
       <c r="O10">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="P10">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="Q10">
-        <v>153.931023393148</v>
+        <v>206.4705728093562</v>
       </c>
       <c r="R10">
-        <v>1385.379210538332</v>
+        <v>1858.235155284205</v>
       </c>
       <c r="S10">
-        <v>0.01851326850699922</v>
+        <v>0.03109097419634999</v>
       </c>
       <c r="T10">
-        <v>0.01851326850699922</v>
+        <v>0.03109097419634997</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H11">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I11">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J11">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>208.959881</v>
       </c>
       <c r="O11">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032023</v>
       </c>
       <c r="P11">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032022</v>
       </c>
       <c r="Q11">
-        <v>265.9514596373527</v>
+        <v>328.8343370707966</v>
       </c>
       <c r="R11">
-        <v>2393.563136736174</v>
+        <v>2959.509033637169</v>
       </c>
       <c r="S11">
-        <v>0.03198595496581259</v>
+        <v>0.0495168863515581</v>
       </c>
       <c r="T11">
-        <v>0.03198595496581258</v>
+        <v>0.04951688635155808</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H12">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I12">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J12">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.96691433333334</v>
+        <v>37.39234266666667</v>
       </c>
       <c r="N12">
-        <v>77.90074300000001</v>
+        <v>112.177028</v>
       </c>
       <c r="O12">
-        <v>0.126458972388088</v>
+        <v>0.1708807549004341</v>
       </c>
       <c r="P12">
-        <v>0.126458972388088</v>
+        <v>0.170880754900434</v>
       </c>
       <c r="Q12">
-        <v>99.14733971199134</v>
+        <v>176.5298604709303</v>
       </c>
       <c r="R12">
-        <v>892.326057407922</v>
+        <v>1588.768744238372</v>
       </c>
       <c r="S12">
-        <v>0.01192444044989354</v>
+        <v>0.02658240960010668</v>
       </c>
       <c r="T12">
-        <v>0.01192444044989354</v>
+        <v>0.02658240960010668</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.818218</v>
+        <v>4.721016333333334</v>
       </c>
       <c r="H13">
-        <v>11.454654</v>
+        <v>14.163049</v>
       </c>
       <c r="I13">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="J13">
-        <v>0.09429493395928291</v>
+        <v>0.1555611667071302</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>69.40355333333332</v>
+        <v>68.04127866666666</v>
       </c>
       <c r="N13">
-        <v>208.21066</v>
+        <v>204.123836</v>
       </c>
       <c r="O13">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="P13">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="Q13">
-        <v>264.9978966012933</v>
+        <v>321.2239879262182</v>
       </c>
       <c r="R13">
-        <v>2384.98106941164</v>
+        <v>2891.015891335964</v>
       </c>
       <c r="S13">
-        <v>0.03187127003657757</v>
+        <v>0.04837089655911549</v>
       </c>
       <c r="T13">
-        <v>0.03187127003657757</v>
+        <v>0.04837089655911547</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H14">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I14">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J14">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.31488599999999</v>
+        <v>43.73434833333334</v>
       </c>
       <c r="N14">
-        <v>120.944658</v>
+        <v>131.203045</v>
       </c>
       <c r="O14">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="P14">
-        <v>0.1963336494301311</v>
+        <v>0.1998633389969613</v>
       </c>
       <c r="Q14">
-        <v>80.95993747804465</v>
+        <v>124.1287809072256</v>
       </c>
       <c r="R14">
-        <v>728.6394373024018</v>
+        <v>1117.15902816503</v>
       </c>
       <c r="S14">
-        <v>0.009737043435440631</v>
+        <v>0.01869169379296675</v>
       </c>
       <c r="T14">
-        <v>0.009737043435440629</v>
+        <v>0.01869169379296674</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H15">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I15">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J15">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>208.959881</v>
       </c>
       <c r="O15">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032023</v>
       </c>
       <c r="P15">
-        <v>0.3392118072814421</v>
+        <v>0.3183113588032022</v>
       </c>
       <c r="Q15">
-        <v>139.8770245906988</v>
+        <v>197.6930892651838</v>
       </c>
       <c r="R15">
-        <v>1258.893221316289</v>
+        <v>1779.237803386654</v>
       </c>
       <c r="S15">
-        <v>0.01682299550230243</v>
+        <v>0.02976923371455876</v>
       </c>
       <c r="T15">
-        <v>0.01682299550230243</v>
+        <v>0.02976923371455874</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H16">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I16">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J16">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.96691433333334</v>
+        <v>37.39234266666667</v>
       </c>
       <c r="N16">
-        <v>77.90074300000001</v>
+        <v>112.177028</v>
       </c>
       <c r="O16">
-        <v>0.126458972388088</v>
+        <v>0.1708807549004341</v>
       </c>
       <c r="P16">
-        <v>0.126458972388088</v>
+        <v>0.170880754900434</v>
       </c>
       <c r="Q16">
-        <v>52.14648903941855</v>
+        <v>106.1286171478391</v>
       </c>
       <c r="R16">
-        <v>469.318401354767</v>
+        <v>955.1575543305521</v>
       </c>
       <c r="S16">
-        <v>0.006271652926118472</v>
+        <v>0.01598117374471802</v>
       </c>
       <c r="T16">
-        <v>0.006271652926118472</v>
+        <v>0.01598117374471801</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.008189666666667</v>
+        <v>2.838244666666667</v>
       </c>
       <c r="H17">
-        <v>6.024569</v>
+        <v>8.514734000000001</v>
       </c>
       <c r="I17">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152295</v>
       </c>
       <c r="J17">
-        <v>0.04959436889042158</v>
+        <v>0.09352237327152294</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>69.40355333333332</v>
+        <v>68.04127866666666</v>
       </c>
       <c r="N17">
-        <v>208.21066</v>
+        <v>204.123836</v>
       </c>
       <c r="O17">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="P17">
-        <v>0.3379955709003388</v>
+        <v>0.3109445472994024</v>
       </c>
       <c r="Q17">
-        <v>139.3754986339489</v>
+        <v>193.1177962888471</v>
       </c>
       <c r="R17">
-        <v>1254.37948770554</v>
+        <v>1738.060166599624</v>
       </c>
       <c r="S17">
-        <v>0.01676267702656004</v>
+        <v>0.02908027201927944</v>
       </c>
       <c r="T17">
-        <v>0.01676267702656004</v>
+        <v>0.02908027201927943</v>
       </c>
     </row>
   </sheetData>
